--- a/biology/Médecine/Hôpital_gynéco-obstétrique_et_pédiatrique_de_Yaoundé/Hôpital_gynéco-obstétrique_et_pédiatrique_de_Yaoundé.xlsx
+++ b/biology/Médecine/Hôpital_gynéco-obstétrique_et_pédiatrique_de_Yaoundé/Hôpital_gynéco-obstétrique_et_pédiatrique_de_Yaoundé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Yaound%C3%A9</t>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Yaoundé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Gynécologique, Obstétrique et Pédiatrique de Yaoundé (Hôpital gynéco-obstétrique et pédiatrique de Yaoundé - HGOPY), situé dans le quartier Ngousso, est un hôpital de Yaoundé, au Cameroun.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Yaound%C3%A9</t>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Yaoundé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôpital gynéco-obstétrique et pédiatrique de Yaoundé est spécialisé dans les soins aux femmes et aux enfants. Construit avec l'aide du gouvernement chinois, il a été institué en septembre 2001 par Décret présidentiel N° 2001/271[1]. 
-Il a été officiellement inauguré le 28 mars 2002 par le président Paul Biya lors d'une cérémonie en présence du vice-ministre chinois de la Santé. Les soins ambulatoires y débutent le 1er avril 2002[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital gynéco-obstétrique et pédiatrique de Yaoundé est spécialisé dans les soins aux femmes et aux enfants. Construit avec l'aide du gouvernement chinois, il a été institué en septembre 2001 par Décret présidentiel N° 2001/271. 
+Il a été officiellement inauguré le 28 mars 2002 par le président Paul Biya lors d'une cérémonie en présence du vice-ministre chinois de la Santé. Les soins ambulatoires y débutent le 1er avril 2002,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Yaound%C3%A9</t>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Yaoundé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,48 @@
           <t>Services  de l'hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il comprend la pédiatrie, la gynécologie, l'obstétrique, la chirurgie pédiatrique, l'ophtalmologie, l'odonto-stomatologie, l'otorhinolaryngologie, l'acupuncture, la dermatologie, les maladies infectieuses, la biologie clinique, la radiologie et l'imagerie médicale, les soins infirmiers, la pharmacie, l'anatomopathologie, le bloc opératoire[1].
-Personnel
-Plateau technique
-Equipement
-L'hôpital est un bâtiment de 9 448 m² sur une superficie totale de 10ha, il dispose de 240 lits[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il comprend la pédiatrie, la gynécologie, l'obstétrique, la chirurgie pédiatrique, l'ophtalmologie, l'odonto-stomatologie, l'otorhinolaryngologie, l'acupuncture, la dermatologie, les maladies infectieuses, la biologie clinique, la radiologie et l'imagerie médicale, les soins infirmiers, la pharmacie, l'anatomopathologie, le bloc opératoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Yaoundé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Yaound%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Services  de l'hôpital</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Equipement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est un bâtiment de 9 448 m² sur une superficie totale de 10ha, il dispose de 240 lits.
 </t>
         </is>
       </c>
